--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -650,13 +650,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -668,16 +708,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,80 +738,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1114,7 +1114,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="51" t="s">
+      <c r="V12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="19"/>
@@ -1140,7 +1140,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="52"/>
+      <c r="V13" s="65"/>
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="2:23" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1173,18 +1173,18 @@
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="27" t="s">
+      <c r="H15" s="56"/>
+      <c r="I15" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="27" t="s">
+      <c r="J15" s="45"/>
+      <c r="K15" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="28"/>
+      <c r="L15" s="45"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1198,12 +1198,12 @@
       <c r="W15" s="6"/>
     </row>
     <row r="16" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -1232,28 +1232,28 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="34">
+      <c r="I17" s="45"/>
+      <c r="J17" s="21">
         <v>111</v>
       </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="27" t="s">
+      <c r="O17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="35">
+      <c r="P17" s="45"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="22">
         <v>112</v>
       </c>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="36"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="23"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
     </row>
@@ -1306,23 +1306,23 @@
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="2:27" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="34">
+      <c r="I20" s="45"/>
+      <c r="J20" s="21">
         <v>113</v>
       </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -1402,22 +1402,22 @@
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="28"/>
-      <c r="L23" s="27" t="s">
+      <c r="K23" s="45"/>
+      <c r="L23" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="27" t="s">
+      <c r="M23" s="45"/>
+      <c r="N23" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O23" s="28"/>
-      <c r="P23" s="27" t="s">
+      <c r="O23" s="45"/>
+      <c r="P23" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="Q23" s="28"/>
+      <c r="Q23" s="45"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
@@ -1432,12 +1432,12 @@
       </c>
     </row>
     <row r="24" spans="2:27" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1468,30 +1468,30 @@
         <v>3</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="27" t="s">
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="27" t="s">
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="V25" s="28"/>
+      <c r="V25" s="45"/>
       <c r="W25" s="6"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
@@ -1500,7 +1500,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="41">
+      <c r="G26" s="24">
         <v>1</v>
       </c>
       <c r="H26" s="1">
@@ -1528,7 +1528,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="42">
+      <c r="G27" s="25">
         <v>2</v>
       </c>
       <c r="H27" s="4">
@@ -1556,7 +1556,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="42">
+      <c r="G28" s="25">
         <v>3</v>
       </c>
       <c r="H28" s="4"/>
@@ -1582,7 +1582,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="42">
+      <c r="G29" s="25">
         <v>4</v>
       </c>
       <c r="H29" s="4"/>
@@ -1607,7 +1607,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="42">
+      <c r="G30" s="25">
         <v>5</v>
       </c>
       <c r="H30" s="4"/>
@@ -1633,7 +1633,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="42">
+      <c r="G31" s="25">
         <v>6</v>
       </c>
       <c r="H31" s="4"/>
@@ -1659,7 +1659,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="42">
+      <c r="G32" s="25">
         <v>7</v>
       </c>
       <c r="H32" s="4"/>
@@ -1685,7 +1685,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="42">
+      <c r="G33" s="25">
         <v>8</v>
       </c>
       <c r="H33" s="4"/>
@@ -1711,7 +1711,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="42">
+      <c r="G34" s="25">
         <v>9</v>
       </c>
       <c r="H34" s="4"/>
@@ -1737,7 +1737,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="42">
+      <c r="G35" s="25">
         <v>10</v>
       </c>
       <c r="H35" s="4">
@@ -1765,7 +1765,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="42"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -1789,7 +1789,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="42"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -1813,7 +1813,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="42"/>
+      <c r="G38" s="25"/>
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -1837,7 +1837,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="42"/>
+      <c r="G39" s="25"/>
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -1861,7 +1861,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="43"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="7"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -1885,7 +1885,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="46"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="8">
         <v>118</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="8"/>
-      <c r="V41" s="45">
+      <c r="V41" s="27">
         <v>119</v>
       </c>
       <c r="W41" s="6"/>
@@ -1913,26 +1913,26 @@
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="37" t="s">
+      <c r="G42" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="38"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="37" t="s">
+      <c r="H42" s="67"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="V42" s="38"/>
+      <c r="V42" s="67"/>
       <c r="W42" s="6"/>
     </row>
     <row r="43" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1941,8 +1941,8 @@
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="40"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -1955,8 +1955,8 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="40"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="43"/>
       <c r="W43" s="9"/>
     </row>
     <row r="45" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1981,10 +1981,10 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="51" t="s">
+      <c r="V46" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="W46" s="55"/>
+      <c r="W46" s="33"/>
     </row>
     <row r="47" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
@@ -2007,8 +2007,8 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="56"/>
+      <c r="V47" s="65"/>
+      <c r="W47" s="34"/>
     </row>
     <row r="48" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
@@ -2032,7 +2032,7 @@
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
-      <c r="W48" s="56"/>
+      <c r="W48" s="34"/>
     </row>
     <row r="49" spans="2:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
@@ -2044,14 +2044,14 @@
         <v>3</v>
       </c>
       <c r="H49" s="54"/>
-      <c r="I49" s="29" t="s">
+      <c r="I49" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="30"/>
-      <c r="K49" s="27" t="s">
+      <c r="J49" s="56"/>
+      <c r="K49" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="L49" s="28"/>
+      <c r="L49" s="45"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -2062,15 +2062,15 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="56"/>
+      <c r="W49" s="34"/>
     </row>
     <row r="50" spans="2:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="62"/>
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
       <c r="H50" s="5"/>
@@ -2088,7 +2088,7 @@
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="6"/>
-      <c r="W50" s="56"/>
+      <c r="W50" s="34"/>
     </row>
     <row r="51" spans="2:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
@@ -2097,21 +2097,21 @@
       <c r="E51" s="9"/>
       <c r="F51" s="5"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="50" t="s">
+      <c r="H51" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="28"/>
-      <c r="M51" s="50" t="s">
+      <c r="I51" s="44"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="45"/>
+      <c r="M51" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="N51" s="27"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="28"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="45"/>
       <c r="V51" s="6"/>
-      <c r="W51" s="56"/>
+      <c r="W51" s="34"/>
     </row>
     <row r="52" spans="2:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
@@ -2121,7 +2121,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="4"/>
       <c r="V52" s="6"/>
-      <c r="W52" s="56"/>
+      <c r="W52" s="34"/>
     </row>
     <row r="53" spans="2:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
@@ -2130,45 +2130,45 @@
       <c r="E53" s="3"/>
       <c r="F53" s="5"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="50" t="s">
+      <c r="H53" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="28"/>
-      <c r="M53" s="50" t="s">
+      <c r="I53" s="44"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="45"/>
+      <c r="M53" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N53" s="27"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="28"/>
-      <c r="S53" s="50" t="s">
+      <c r="N53" s="44"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="45"/>
+      <c r="S53" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="T53" s="50" t="s">
+      <c r="T53" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="U53" s="58" t="s">
+      <c r="U53" s="36" t="s">
         <v>27</v>
       </c>
       <c r="V53" s="6"/>
-      <c r="W53" s="56"/>
-      <c r="Z53" s="57" t="s">
+      <c r="W53" s="34"/>
+      <c r="Z53" s="35" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="54" spans="2:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="70"/>
       <c r="F54" s="5"/>
       <c r="G54" s="4"/>
       <c r="V54" s="6"/>
-      <c r="W54" s="56"/>
+      <c r="W54" s="34"/>
     </row>
     <row r="55" spans="2:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
@@ -2177,21 +2177,21 @@
       <c r="E55" s="9"/>
       <c r="F55" s="5"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="50" t="s">
+      <c r="H55" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I55" s="27"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="28"/>
-      <c r="M55" s="27" t="s">
+      <c r="I55" s="44"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="45"/>
+      <c r="M55" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="28"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="28"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="45"/>
       <c r="V55" s="6"/>
-      <c r="W55" s="56"/>
+      <c r="W55" s="34"/>
     </row>
     <row r="56" spans="2:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
@@ -2201,7 +2201,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="4"/>
       <c r="V56" s="6"/>
-      <c r="W56" s="56"/>
+      <c r="W56" s="34"/>
     </row>
     <row r="57" spans="2:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
@@ -2212,36 +2212,36 @@
       <c r="G57" s="7"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="27" t="s">
+      <c r="J57" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="28"/>
-      <c r="L57" s="27" t="s">
+      <c r="K57" s="45"/>
+      <c r="L57" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M57" s="28"/>
-      <c r="N57" s="27" t="s">
+      <c r="M57" s="45"/>
+      <c r="N57" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O57" s="28"/>
-      <c r="P57" s="27" t="s">
+      <c r="O57" s="45"/>
+      <c r="P57" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="Q57" s="28"/>
+      <c r="Q57" s="45"/>
       <c r="R57" s="8"/>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
       <c r="V57" s="9"/>
-      <c r="W57" s="56"/>
+      <c r="W57" s="34"/>
     </row>
     <row r="58" spans="2:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="52"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -2259,7 +2259,7 @@
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
-      <c r="W58" s="56"/>
+      <c r="W58" s="34"/>
       <c r="Z58" t="s">
         <v>34</v>
       </c>
@@ -2270,35 +2270,35 @@
       <c r="D59" s="17"/>
       <c r="E59" s="18"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="59" t="s">
+      <c r="G59" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="60" t="s">
+      <c r="H59" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60" t="s">
+      <c r="I59" s="68"/>
+      <c r="J59" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60" t="s">
+      <c r="K59" s="68"/>
+      <c r="L59" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="M59" s="60"/>
-      <c r="N59" s="60"/>
-      <c r="O59" s="60" t="s">
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="P59" s="60"/>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="59" t="s">
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="S59" s="59"/>
+      <c r="S59" s="37"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="3"/>
-      <c r="W59" s="56"/>
+      <c r="W59" s="34"/>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B60" s="10"/>
@@ -2322,8 +2322,8 @@
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
       <c r="V60" s="6"/>
-      <c r="W60" s="56"/>
-      <c r="Y60" s="61" t="s">
+      <c r="W60" s="34"/>
+      <c r="Y60" s="38" t="s">
         <v>39</v>
       </c>
       <c r="Z60" t="s">
@@ -2352,7 +2352,7 @@
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
       <c r="V61" s="6"/>
-      <c r="W61" s="56"/>
+      <c r="W61" s="34"/>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B62" s="4"/>
@@ -2376,7 +2376,7 @@
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="6"/>
-      <c r="W62" s="56"/>
+      <c r="W62" s="34"/>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
@@ -2400,7 +2400,7 @@
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="6"/>
-      <c r="W63" s="56"/>
+      <c r="W63" s="34"/>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B64" s="4"/>
@@ -2424,7 +2424,7 @@
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="6"/>
-      <c r="W64" s="56"/>
+      <c r="W64" s="34"/>
       <c r="Y64" t="s">
         <v>40</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="6"/>
-      <c r="W65" s="56"/>
+      <c r="W65" s="34"/>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B66" s="4"/>
@@ -2475,7 +2475,7 @@
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="6"/>
-      <c r="W66" s="56"/>
+      <c r="W66" s="34"/>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B67" s="4"/>
@@ -2499,7 +2499,7 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="6"/>
-      <c r="W67" s="56"/>
+      <c r="W67" s="34"/>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B68" s="4"/>
@@ -2523,7 +2523,7 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="6"/>
-      <c r="W68" s="56"/>
+      <c r="W68" s="34"/>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B69" s="4"/>
@@ -2547,7 +2547,7 @@
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
       <c r="V69" s="6"/>
-      <c r="W69" s="56"/>
+      <c r="W69" s="34"/>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B70" s="4"/>
@@ -2571,7 +2571,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="6"/>
-      <c r="W70" s="56"/>
+      <c r="W70" s="34"/>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B71" s="4"/>
@@ -2595,7 +2595,7 @@
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
       <c r="V71" s="6"/>
-      <c r="W71" s="56"/>
+      <c r="W71" s="34"/>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B72" s="4"/>
@@ -2619,7 +2619,7 @@
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
       <c r="V72" s="6"/>
-      <c r="W72" s="56"/>
+      <c r="W72" s="34"/>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B73" s="4"/>
@@ -2643,7 +2643,7 @@
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
       <c r="V73" s="6"/>
-      <c r="W73" s="56"/>
+      <c r="W73" s="34"/>
     </row>
     <row r="74" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
@@ -2667,7 +2667,7 @@
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
       <c r="V74" s="9"/>
-      <c r="W74" s="56"/>
+      <c r="W74" s="34"/>
     </row>
     <row r="75" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
@@ -2675,7 +2675,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="6"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="46"/>
+      <c r="G75" s="28"/>
       <c r="H75" s="8"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -2690,8 +2690,8 @@
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
       <c r="U75" s="8"/>
-      <c r="V75" s="45"/>
-      <c r="W75" s="56"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="34"/>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
@@ -2699,27 +2699,27 @@
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="37" t="s">
+      <c r="G76" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="38"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="48"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="48"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="48"/>
-      <c r="P76" s="48"/>
-      <c r="Q76" s="48"/>
-      <c r="R76" s="48"/>
-      <c r="S76" s="48"/>
-      <c r="T76" s="49"/>
-      <c r="U76" s="37" t="s">
+      <c r="H76" s="67"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="30"/>
+      <c r="T76" s="31"/>
+      <c r="U76" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="V76" s="38"/>
-      <c r="W76" s="56"/>
+      <c r="V76" s="67"/>
+      <c r="W76" s="34"/>
     </row>
     <row r="77" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
@@ -2727,8 +2727,8 @@
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="40"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="43"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -2741,9 +2741,9 @@
       <c r="R77" s="8"/>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="40"/>
-      <c r="W77" s="45"/>
+      <c r="U77" s="42"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="27"/>
     </row>
     <row r="81" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="2:23" x14ac:dyDescent="0.2">
@@ -2767,10 +2767,10 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
-      <c r="V82" s="51" t="s">
+      <c r="V82" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="W82" s="55"/>
+      <c r="W82" s="33"/>
     </row>
     <row r="83" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
@@ -2793,8 +2793,8 @@
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
-      <c r="V83" s="52"/>
-      <c r="W83" s="56"/>
+      <c r="V83" s="65"/>
+      <c r="W83" s="34"/>
     </row>
     <row r="84" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
@@ -2818,7 +2818,7 @@
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
-      <c r="W84" s="56"/>
+      <c r="W84" s="34"/>
     </row>
     <row r="85" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
@@ -2826,18 +2826,18 @@
       <c r="D85" s="2"/>
       <c r="E85" s="3"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="29" t="s">
+      <c r="G85" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H85" s="30"/>
-      <c r="I85" s="27" t="s">
+      <c r="H85" s="56"/>
+      <c r="I85" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="J85" s="28"/>
-      <c r="K85" s="27" t="s">
+      <c r="J85" s="45"/>
+      <c r="K85" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="L85" s="28"/>
+      <c r="L85" s="45"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -2848,15 +2848,15 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="3"/>
-      <c r="W85" s="56"/>
+      <c r="W85" s="34"/>
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="64"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="59"/>
       <c r="F86" s="5"/>
       <c r="G86" s="4"/>
       <c r="H86" s="5"/>
@@ -2874,7 +2874,7 @@
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="6"/>
-      <c r="W86" s="56"/>
+      <c r="W86" s="34"/>
     </row>
     <row r="87" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
@@ -2902,7 +2902,7 @@
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="6"/>
-      <c r="W87" s="56"/>
+      <c r="W87" s="34"/>
     </row>
     <row r="88" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
@@ -2926,7 +2926,7 @@
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="6"/>
-      <c r="W88" s="56"/>
+      <c r="W88" s="34"/>
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
@@ -2956,15 +2956,15 @@
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
       <c r="V89" s="6"/>
-      <c r="W89" s="56"/>
+      <c r="W89" s="34"/>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="33"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="62"/>
       <c r="F90" s="5"/>
       <c r="G90" s="4"/>
       <c r="H90" s="5"/>
@@ -2982,7 +2982,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
       <c r="V90" s="6"/>
-      <c r="W90" s="56"/>
+      <c r="W90" s="34"/>
     </row>
     <row r="91" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
@@ -3010,7 +3010,7 @@
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
       <c r="V91" s="6"/>
-      <c r="W91" s="56"/>
+      <c r="W91" s="34"/>
     </row>
     <row r="92" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
@@ -3034,7 +3034,7 @@
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
       <c r="V92" s="6"/>
-      <c r="W92" s="56"/>
+      <c r="W92" s="34"/>
     </row>
     <row r="93" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B93" s="13"/>
@@ -3045,36 +3045,36 @@
       <c r="G93" s="7"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
-      <c r="J93" s="27" t="s">
+      <c r="J93" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="K93" s="28"/>
-      <c r="L93" s="27" t="s">
+      <c r="K93" s="45"/>
+      <c r="L93" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M93" s="28"/>
-      <c r="N93" s="27" t="s">
+      <c r="M93" s="45"/>
+      <c r="N93" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O93" s="28"/>
-      <c r="P93" s="27" t="s">
+      <c r="O93" s="45"/>
+      <c r="P93" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="Q93" s="28"/>
+      <c r="Q93" s="45"/>
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
       <c r="V93" s="9"/>
-      <c r="W93" s="56"/>
+      <c r="W93" s="34"/>
     </row>
     <row r="94" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="26"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="52"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -3092,7 +3092,7 @@
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
       <c r="V94" s="5"/>
-      <c r="W94" s="56"/>
+      <c r="W94" s="34"/>
     </row>
     <row r="95" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B95" s="16"/>
@@ -3130,7 +3130,7 @@
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="V95" s="3"/>
-      <c r="W95" s="56"/>
+      <c r="W95" s="34"/>
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B96" s="10"/>
@@ -3154,7 +3154,7 @@
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
       <c r="V96" s="6"/>
-      <c r="W96" s="56"/>
+      <c r="W96" s="34"/>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B97" s="4"/>
@@ -3178,7 +3178,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
       <c r="V97" s="6"/>
-      <c r="W97" s="56"/>
+      <c r="W97" s="34"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B98" s="4"/>
@@ -3202,7 +3202,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
       <c r="V98" s="6"/>
-      <c r="W98" s="56"/>
+      <c r="W98" s="34"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B99" s="4"/>
@@ -3226,7 +3226,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
       <c r="V99" s="6"/>
-      <c r="W99" s="56"/>
+      <c r="W99" s="34"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B100" s="4"/>
@@ -3250,7 +3250,7 @@
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
       <c r="V100" s="6"/>
-      <c r="W100" s="56"/>
+      <c r="W100" s="34"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B101" s="4"/>
@@ -3274,7 +3274,7 @@
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
       <c r="V101" s="6"/>
-      <c r="W101" s="56"/>
+      <c r="W101" s="34"/>
     </row>
     <row r="102" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B102" s="4"/>
@@ -3298,7 +3298,7 @@
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
       <c r="V102" s="6"/>
-      <c r="W102" s="56"/>
+      <c r="W102" s="34"/>
     </row>
     <row r="103" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B103" s="4"/>
@@ -3322,7 +3322,7 @@
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
       <c r="V103" s="6"/>
-      <c r="W103" s="56"/>
+      <c r="W103" s="34"/>
     </row>
     <row r="104" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B104" s="4"/>
@@ -3346,7 +3346,7 @@
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
       <c r="V104" s="6"/>
-      <c r="W104" s="56"/>
+      <c r="W104" s="34"/>
     </row>
     <row r="105" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B105" s="4"/>
@@ -3370,7 +3370,7 @@
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
       <c r="V105" s="6"/>
-      <c r="W105" s="56"/>
+      <c r="W105" s="34"/>
     </row>
     <row r="106" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B106" s="4"/>
@@ -3394,7 +3394,7 @@
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
       <c r="V106" s="6"/>
-      <c r="W106" s="56"/>
+      <c r="W106" s="34"/>
     </row>
     <row r="107" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B107" s="4"/>
@@ -3418,7 +3418,7 @@
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
       <c r="V107" s="6"/>
-      <c r="W107" s="56"/>
+      <c r="W107" s="34"/>
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
@@ -3442,7 +3442,7 @@
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
       <c r="V108" s="6"/>
-      <c r="W108" s="56"/>
+      <c r="W108" s="34"/>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B109" s="4"/>
@@ -3466,7 +3466,7 @@
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
       <c r="V109" s="6"/>
-      <c r="W109" s="56"/>
+      <c r="W109" s="34"/>
     </row>
     <row r="110" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B110" s="4"/>
@@ -3490,7 +3490,7 @@
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
       <c r="V110" s="6"/>
-      <c r="W110" s="56"/>
+      <c r="W110" s="34"/>
     </row>
     <row r="111" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
@@ -3514,7 +3514,7 @@
       <c r="T111" s="8"/>
       <c r="U111" s="8"/>
       <c r="V111" s="9"/>
-      <c r="W111" s="56"/>
+      <c r="W111" s="34"/>
     </row>
     <row r="112" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B112" s="4"/>
@@ -3522,10 +3522,10 @@
       <c r="D112" s="5"/>
       <c r="E112" s="6"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="65" t="s">
+      <c r="G112" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H112" s="66"/>
+      <c r="H112" s="41"/>
       <c r="I112" s="4"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -3538,11 +3538,11 @@
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
       <c r="T112" s="6"/>
-      <c r="U112" s="65" t="s">
+      <c r="U112" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="V112" s="66"/>
-      <c r="W112" s="56"/>
+      <c r="V112" s="41"/>
+      <c r="W112" s="34"/>
     </row>
     <row r="113" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
@@ -3550,8 +3550,8 @@
       <c r="D113" s="8"/>
       <c r="E113" s="9"/>
       <c r="F113" s="8"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="40"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="43"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -3564,9 +3564,9 @@
       <c r="R113" s="8"/>
       <c r="S113" s="8"/>
       <c r="T113" s="8"/>
-      <c r="U113" s="39"/>
-      <c r="V113" s="40"/>
-      <c r="W113" s="45"/>
+      <c r="U113" s="42"/>
+      <c r="V113" s="43"/>
+      <c r="W113" s="27"/>
     </row>
     <row r="115" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="2:23" x14ac:dyDescent="0.2">
@@ -3590,10 +3590,10 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
-      <c r="V116" s="51" t="s">
+      <c r="V116" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="W116" s="55"/>
+      <c r="W116" s="33"/>
     </row>
     <row r="117" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
@@ -3616,8 +3616,8 @@
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
-      <c r="V117" s="52"/>
-      <c r="W117" s="56"/>
+      <c r="V117" s="65"/>
+      <c r="W117" s="34"/>
     </row>
     <row r="118" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
@@ -3641,7 +3641,7 @@
       <c r="T118" s="5"/>
       <c r="U118" s="5"/>
       <c r="V118" s="5"/>
-      <c r="W118" s="56"/>
+      <c r="W118" s="34"/>
     </row>
     <row r="119" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
@@ -3653,14 +3653,14 @@
         <v>44</v>
       </c>
       <c r="H119" s="54"/>
-      <c r="I119" s="29" t="s">
+      <c r="I119" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="J119" s="30"/>
-      <c r="K119" s="27" t="s">
+      <c r="J119" s="56"/>
+      <c r="K119" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="L119" s="28"/>
+      <c r="L119" s="45"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -3671,15 +3671,15 @@
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
       <c r="V119" s="3"/>
-      <c r="W119" s="56"/>
+      <c r="W119" s="34"/>
     </row>
     <row r="120" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B120" s="62" t="s">
+      <c r="B120" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C120" s="63"/>
-      <c r="D120" s="63"/>
-      <c r="E120" s="64"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="59"/>
       <c r="F120" s="5"/>
       <c r="G120" s="4"/>
       <c r="H120" s="5"/>
@@ -3697,7 +3697,7 @@
       <c r="T120" s="5"/>
       <c r="U120" s="5"/>
       <c r="V120" s="6"/>
-      <c r="W120" s="56"/>
+      <c r="W120" s="34"/>
     </row>
     <row r="121" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
@@ -3718,7 +3718,7 @@
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
       <c r="V121" s="6"/>
-      <c r="W121" s="56"/>
+      <c r="W121" s="34"/>
     </row>
     <row r="122" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
@@ -3733,7 +3733,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
       <c r="V122" s="6"/>
-      <c r="W122" s="56"/>
+      <c r="W122" s="34"/>
     </row>
     <row r="123" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
@@ -3748,21 +3748,21 @@
       <c r="T123" s="5"/>
       <c r="U123" s="5"/>
       <c r="V123" s="6"/>
-      <c r="W123" s="56"/>
+      <c r="W123" s="34"/>
     </row>
     <row r="124" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B124" s="31" t="s">
+      <c r="B124" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
-      <c r="E124" s="33"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="62"/>
       <c r="F124" s="5"/>
       <c r="G124" s="4"/>
       <c r="T124" s="5"/>
       <c r="U124" s="5"/>
       <c r="V124" s="6"/>
-      <c r="W124" s="56"/>
+      <c r="W124" s="34"/>
     </row>
     <row r="125" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
@@ -3774,7 +3774,7 @@
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
       <c r="V125" s="6"/>
-      <c r="W125" s="56"/>
+      <c r="W125" s="34"/>
     </row>
     <row r="126" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B126" s="4"/>
@@ -3798,7 +3798,7 @@
       <c r="T126" s="5"/>
       <c r="U126" s="5"/>
       <c r="V126" s="6"/>
-      <c r="W126" s="56"/>
+      <c r="W126" s="34"/>
     </row>
     <row r="127" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B127" s="13"/>
@@ -3809,34 +3809,34 @@
       <c r="G127" s="7"/>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
-      <c r="J127" s="27" t="s">
+      <c r="J127" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="K127" s="28"/>
-      <c r="L127" s="27" t="s">
+      <c r="K127" s="45"/>
+      <c r="L127" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M127" s="28"/>
-      <c r="N127" s="27" t="s">
+      <c r="M127" s="45"/>
+      <c r="N127" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="O127" s="28"/>
-      <c r="P127" s="22"/>
-      <c r="Q127" s="22"/>
+      <c r="O127" s="45"/>
+      <c r="P127" s="63"/>
+      <c r="Q127" s="63"/>
       <c r="R127" s="8"/>
       <c r="S127" s="8"/>
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
       <c r="V127" s="9"/>
-      <c r="W127" s="56"/>
+      <c r="W127" s="34"/>
     </row>
     <row r="128" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="24" t="s">
+      <c r="B128" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="26"/>
+      <c r="C128" s="51"/>
+      <c r="D128" s="51"/>
+      <c r="E128" s="52"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
@@ -3854,7 +3854,7 @@
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
       <c r="V128" s="5"/>
-      <c r="W128" s="56"/>
+      <c r="W128" s="34"/>
     </row>
     <row r="129" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B129" s="16"/>
@@ -3863,14 +3863,14 @@
       <c r="E129" s="18"/>
       <c r="F129" s="5"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="48"/>
-      <c r="I129" s="48"/>
-      <c r="J129" s="48"/>
-      <c r="K129" s="48"/>
-      <c r="L129" s="48"/>
-      <c r="M129" s="48"/>
-      <c r="N129" s="48"/>
-      <c r="O129" s="48"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
+      <c r="K129" s="30"/>
+      <c r="L129" s="30"/>
+      <c r="M129" s="30"/>
+      <c r="N129" s="30"/>
+      <c r="O129" s="30"/>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
@@ -3878,7 +3878,7 @@
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
       <c r="V129" s="3"/>
-      <c r="W129" s="56"/>
+      <c r="W129" s="34"/>
     </row>
     <row r="130" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B130" s="10"/>
@@ -3898,7 +3898,7 @@
         <v>61</v>
       </c>
       <c r="L130" s="5"/>
-      <c r="M130" s="67" t="s">
+      <c r="M130" s="39" t="s">
         <v>62</v>
       </c>
       <c r="N130" s="5"/>
@@ -3914,7 +3914,7 @@
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
       <c r="V130" s="6"/>
-      <c r="W130" s="56"/>
+      <c r="W130" s="34"/>
     </row>
     <row r="131" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B131" s="4"/>
@@ -3938,7 +3938,7 @@
       <c r="T131" s="5"/>
       <c r="U131" s="5"/>
       <c r="V131" s="6"/>
-      <c r="W131" s="56"/>
+      <c r="W131" s="34"/>
     </row>
     <row r="132" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B132" s="4"/>
@@ -3962,7 +3962,7 @@
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
       <c r="V132" s="6"/>
-      <c r="W132" s="56"/>
+      <c r="W132" s="34"/>
     </row>
     <row r="133" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B133" s="4"/>
@@ -3986,7 +3986,7 @@
       <c r="T133" s="5"/>
       <c r="U133" s="5"/>
       <c r="V133" s="6"/>
-      <c r="W133" s="56"/>
+      <c r="W133" s="34"/>
     </row>
     <row r="134" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B134" s="4"/>
@@ -4010,7 +4010,7 @@
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
       <c r="V134" s="6"/>
-      <c r="W134" s="56"/>
+      <c r="W134" s="34"/>
     </row>
     <row r="135" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B135" s="4"/>
@@ -4034,7 +4034,7 @@
       <c r="T135" s="5"/>
       <c r="U135" s="5"/>
       <c r="V135" s="6"/>
-      <c r="W135" s="56"/>
+      <c r="W135" s="34"/>
     </row>
     <row r="136" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B136" s="4"/>
@@ -4058,7 +4058,7 @@
       <c r="T136" s="5"/>
       <c r="U136" s="5"/>
       <c r="V136" s="6"/>
-      <c r="W136" s="56"/>
+      <c r="W136" s="34"/>
     </row>
     <row r="137" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B137" s="4"/>
@@ -4082,7 +4082,7 @@
       <c r="T137" s="5"/>
       <c r="U137" s="5"/>
       <c r="V137" s="6"/>
-      <c r="W137" s="56"/>
+      <c r="W137" s="34"/>
     </row>
     <row r="138" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B138" s="4"/>
@@ -4106,7 +4106,7 @@
       <c r="T138" s="5"/>
       <c r="U138" s="5"/>
       <c r="V138" s="6"/>
-      <c r="W138" s="56"/>
+      <c r="W138" s="34"/>
     </row>
     <row r="139" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B139" s="4"/>
@@ -4130,7 +4130,7 @@
       <c r="T139" s="5"/>
       <c r="U139" s="5"/>
       <c r="V139" s="6"/>
-      <c r="W139" s="56"/>
+      <c r="W139" s="34"/>
     </row>
     <row r="140" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B140" s="4"/>
@@ -4154,7 +4154,7 @@
       <c r="T140" s="5"/>
       <c r="U140" s="5"/>
       <c r="V140" s="6"/>
-      <c r="W140" s="56"/>
+      <c r="W140" s="34"/>
     </row>
     <row r="141" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B141" s="4"/>
@@ -4178,7 +4178,7 @@
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
       <c r="V141" s="6"/>
-      <c r="W141" s="56"/>
+      <c r="W141" s="34"/>
     </row>
     <row r="142" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B142" s="4"/>
@@ -4202,7 +4202,7 @@
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
       <c r="V142" s="6"/>
-      <c r="W142" s="56"/>
+      <c r="W142" s="34"/>
     </row>
     <row r="143" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B143" s="4"/>
@@ -4226,7 +4226,7 @@
       <c r="T143" s="5"/>
       <c r="U143" s="5"/>
       <c r="V143" s="6"/>
-      <c r="W143" s="56"/>
+      <c r="W143" s="34"/>
     </row>
     <row r="144" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B144" s="4"/>
@@ -4250,7 +4250,7 @@
       <c r="T144" s="5"/>
       <c r="U144" s="5"/>
       <c r="V144" s="6"/>
-      <c r="W144" s="56"/>
+      <c r="W144" s="34"/>
     </row>
     <row r="145" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
@@ -4274,7 +4274,7 @@
       <c r="T145" s="8"/>
       <c r="U145" s="8"/>
       <c r="V145" s="9"/>
-      <c r="W145" s="56"/>
+      <c r="W145" s="34"/>
     </row>
     <row r="146" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B146" s="4"/>
@@ -4282,10 +4282,10 @@
       <c r="D146" s="5"/>
       <c r="E146" s="6"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="65" t="s">
+      <c r="G146" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H146" s="66"/>
+      <c r="H146" s="41"/>
       <c r="I146" s="4"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
@@ -4298,11 +4298,11 @@
       <c r="R146" s="5"/>
       <c r="S146" s="5"/>
       <c r="T146" s="6"/>
-      <c r="U146" s="65" t="s">
+      <c r="U146" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="V146" s="66"/>
-      <c r="W146" s="56"/>
+      <c r="V146" s="41"/>
+      <c r="W146" s="34"/>
     </row>
     <row r="147" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
@@ -4310,8 +4310,8 @@
       <c r="D147" s="8"/>
       <c r="E147" s="9"/>
       <c r="F147" s="8"/>
-      <c r="G147" s="39"/>
-      <c r="H147" s="40"/>
+      <c r="G147" s="42"/>
+      <c r="H147" s="43"/>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
@@ -4324,9 +4324,9 @@
       <c r="R147" s="8"/>
       <c r="S147" s="8"/>
       <c r="T147" s="8"/>
-      <c r="U147" s="39"/>
-      <c r="V147" s="40"/>
-      <c r="W147" s="45"/>
+      <c r="U147" s="42"/>
+      <c r="V147" s="43"/>
+      <c r="W147" s="27"/>
     </row>
     <row r="150" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="151" spans="2:23" x14ac:dyDescent="0.2">
@@ -4350,10 +4350,10 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
-      <c r="V151" s="51" t="s">
+      <c r="V151" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="W151" s="55"/>
+      <c r="W151" s="33"/>
     </row>
     <row r="152" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
@@ -4376,8 +4376,8 @@
       <c r="S152" s="8"/>
       <c r="T152" s="8"/>
       <c r="U152" s="8"/>
-      <c r="V152" s="52"/>
-      <c r="W152" s="56"/>
+      <c r="V152" s="65"/>
+      <c r="W152" s="34"/>
     </row>
     <row r="153" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
@@ -4401,7 +4401,7 @@
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
       <c r="V153" s="5"/>
-      <c r="W153" s="56"/>
+      <c r="W153" s="34"/>
     </row>
     <row r="154" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
@@ -4417,10 +4417,10 @@
         <v>57</v>
       </c>
       <c r="J154" s="54"/>
-      <c r="K154" s="29" t="s">
+      <c r="K154" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L154" s="30"/>
+      <c r="L154" s="56"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -4431,15 +4431,15 @@
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
       <c r="V154" s="3"/>
-      <c r="W154" s="56"/>
+      <c r="W154" s="34"/>
     </row>
     <row r="155" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B155" s="62" t="s">
+      <c r="B155" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C155" s="63"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="64"/>
+      <c r="C155" s="58"/>
+      <c r="D155" s="58"/>
+      <c r="E155" s="59"/>
       <c r="F155" s="5"/>
       <c r="G155" s="4"/>
       <c r="H155" s="5"/>
@@ -4457,7 +4457,7 @@
       <c r="T155" s="5"/>
       <c r="U155" s="5"/>
       <c r="V155" s="6"/>
-      <c r="W155" s="56"/>
+      <c r="W155" s="34"/>
     </row>
     <row r="156" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
@@ -4475,7 +4475,7 @@
       <c r="T156" s="5"/>
       <c r="U156" s="5"/>
       <c r="V156" s="6"/>
-      <c r="W156" s="56"/>
+      <c r="W156" s="34"/>
     </row>
     <row r="157" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
@@ -4493,7 +4493,7 @@
       <c r="T157" s="5"/>
       <c r="U157" s="5"/>
       <c r="V157" s="6"/>
-      <c r="W157" s="56"/>
+      <c r="W157" s="34"/>
     </row>
     <row r="158" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B158" s="1"/>
@@ -4508,21 +4508,21 @@
       <c r="T158" s="5"/>
       <c r="U158" s="5"/>
       <c r="V158" s="6"/>
-      <c r="W158" s="56"/>
+      <c r="W158" s="34"/>
     </row>
     <row r="159" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B159" s="31" t="s">
+      <c r="B159" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="32"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="33"/>
+      <c r="C159" s="61"/>
+      <c r="D159" s="61"/>
+      <c r="E159" s="62"/>
       <c r="F159" s="5"/>
       <c r="G159" s="4"/>
       <c r="T159" s="5"/>
       <c r="U159" s="5"/>
       <c r="V159" s="6"/>
-      <c r="W159" s="56"/>
+      <c r="W159" s="34"/>
     </row>
     <row r="160" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B160" s="7"/>
@@ -4534,7 +4534,7 @@
       <c r="T160" s="5"/>
       <c r="U160" s="5"/>
       <c r="V160" s="6"/>
-      <c r="W160" s="56"/>
+      <c r="W160" s="34"/>
     </row>
     <row r="161" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
@@ -4558,7 +4558,7 @@
       <c r="T161" s="5"/>
       <c r="U161" s="5"/>
       <c r="V161" s="6"/>
-      <c r="W161" s="56"/>
+      <c r="W161" s="34"/>
     </row>
     <row r="162" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B162" s="13"/>
@@ -4569,32 +4569,32 @@
       <c r="G162" s="7"/>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
-      <c r="J162" s="27" t="s">
+      <c r="J162" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K162" s="28"/>
-      <c r="L162" s="27" t="s">
+      <c r="K162" s="45"/>
+      <c r="L162" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M162" s="68"/>
-      <c r="N162" s="69"/>
-      <c r="O162" s="70"/>
-      <c r="P162" s="70"/>
-      <c r="Q162" s="71"/>
+      <c r="M162" s="46"/>
+      <c r="N162" s="47"/>
+      <c r="O162" s="48"/>
+      <c r="P162" s="48"/>
+      <c r="Q162" s="49"/>
       <c r="R162" s="8"/>
       <c r="S162" s="8"/>
       <c r="T162" s="8"/>
       <c r="U162" s="8"/>
       <c r="V162" s="9"/>
-      <c r="W162" s="56"/>
+      <c r="W162" s="34"/>
     </row>
     <row r="163" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="24" t="s">
+      <c r="B163" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C163" s="25"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="26"/>
+      <c r="C163" s="51"/>
+      <c r="D163" s="51"/>
+      <c r="E163" s="52"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
@@ -4612,7 +4612,7 @@
       <c r="T163" s="5"/>
       <c r="U163" s="5"/>
       <c r="V163" s="5"/>
-      <c r="W163" s="56"/>
+      <c r="W163" s="34"/>
     </row>
     <row r="164" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B164" s="16"/>
@@ -4621,14 +4621,14 @@
       <c r="E164" s="18"/>
       <c r="F164" s="5"/>
       <c r="G164" s="1"/>
-      <c r="H164" s="48"/>
-      <c r="I164" s="48"/>
-      <c r="J164" s="48"/>
-      <c r="K164" s="48"/>
-      <c r="L164" s="48"/>
-      <c r="M164" s="48"/>
-      <c r="N164" s="48"/>
-      <c r="O164" s="48"/>
+      <c r="H164" s="30"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
+      <c r="K164" s="30"/>
+      <c r="L164" s="30"/>
+      <c r="M164" s="30"/>
+      <c r="N164" s="30"/>
+      <c r="O164" s="30"/>
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
@@ -4636,7 +4636,7 @@
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
       <c r="V164" s="3"/>
-      <c r="W164" s="56"/>
+      <c r="W164" s="34"/>
     </row>
     <row r="165" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B165" s="10"/>
@@ -4656,7 +4656,7 @@
         <v>68</v>
       </c>
       <c r="L165" s="5"/>
-      <c r="M165" s="67" t="s">
+      <c r="M165" s="39" t="s">
         <v>45</v>
       </c>
       <c r="N165" s="5"/>
@@ -4668,7 +4668,7 @@
       <c r="T165" s="5"/>
       <c r="U165" s="5"/>
       <c r="V165" s="6"/>
-      <c r="W165" s="56"/>
+      <c r="W165" s="34"/>
     </row>
     <row r="166" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B166" s="4"/>
@@ -4692,7 +4692,7 @@
       <c r="T166" s="5"/>
       <c r="U166" s="5"/>
       <c r="V166" s="6"/>
-      <c r="W166" s="56"/>
+      <c r="W166" s="34"/>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B167" s="4"/>
@@ -4716,7 +4716,7 @@
       <c r="T167" s="5"/>
       <c r="U167" s="5"/>
       <c r="V167" s="6"/>
-      <c r="W167" s="56"/>
+      <c r="W167" s="34"/>
     </row>
     <row r="168" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B168" s="4"/>
@@ -4740,7 +4740,7 @@
       <c r="T168" s="5"/>
       <c r="U168" s="5"/>
       <c r="V168" s="6"/>
-      <c r="W168" s="56"/>
+      <c r="W168" s="34"/>
     </row>
     <row r="169" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B169" s="4"/>
@@ -4764,7 +4764,7 @@
       <c r="T169" s="5"/>
       <c r="U169" s="5"/>
       <c r="V169" s="6"/>
-      <c r="W169" s="56"/>
+      <c r="W169" s="34"/>
     </row>
     <row r="170" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B170" s="4"/>
@@ -4788,7 +4788,7 @@
       <c r="T170" s="5"/>
       <c r="U170" s="5"/>
       <c r="V170" s="6"/>
-      <c r="W170" s="56"/>
+      <c r="W170" s="34"/>
     </row>
     <row r="171" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B171" s="4"/>
@@ -4812,7 +4812,7 @@
       <c r="T171" s="5"/>
       <c r="U171" s="5"/>
       <c r="V171" s="6"/>
-      <c r="W171" s="56"/>
+      <c r="W171" s="34"/>
     </row>
     <row r="172" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B172" s="4"/>
@@ -4836,7 +4836,7 @@
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
       <c r="V172" s="6"/>
-      <c r="W172" s="56"/>
+      <c r="W172" s="34"/>
     </row>
     <row r="173" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B173" s="4"/>
@@ -4860,7 +4860,7 @@
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
       <c r="V173" s="6"/>
-      <c r="W173" s="56"/>
+      <c r="W173" s="34"/>
     </row>
     <row r="174" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B174" s="4"/>
@@ -4884,7 +4884,7 @@
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
       <c r="V174" s="6"/>
-      <c r="W174" s="56"/>
+      <c r="W174" s="34"/>
     </row>
     <row r="175" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B175" s="4"/>
@@ -4908,7 +4908,7 @@
       <c r="T175" s="5"/>
       <c r="U175" s="5"/>
       <c r="V175" s="6"/>
-      <c r="W175" s="56"/>
+      <c r="W175" s="34"/>
     </row>
     <row r="176" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B176" s="4"/>
@@ -4932,7 +4932,7 @@
       <c r="T176" s="5"/>
       <c r="U176" s="5"/>
       <c r="V176" s="6"/>
-      <c r="W176" s="56"/>
+      <c r="W176" s="34"/>
     </row>
     <row r="177" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B177" s="4"/>
@@ -4956,7 +4956,7 @@
       <c r="T177" s="5"/>
       <c r="U177" s="5"/>
       <c r="V177" s="6"/>
-      <c r="W177" s="56"/>
+      <c r="W177" s="34"/>
     </row>
     <row r="178" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B178" s="4"/>
@@ -4980,7 +4980,7 @@
       <c r="T178" s="5"/>
       <c r="U178" s="5"/>
       <c r="V178" s="6"/>
-      <c r="W178" s="56"/>
+      <c r="W178" s="34"/>
     </row>
     <row r="179" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B179" s="4"/>
@@ -5004,7 +5004,7 @@
       <c r="T179" s="5"/>
       <c r="U179" s="5"/>
       <c r="V179" s="6"/>
-      <c r="W179" s="56"/>
+      <c r="W179" s="34"/>
     </row>
     <row r="180" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
@@ -5028,7 +5028,7 @@
       <c r="T180" s="8"/>
       <c r="U180" s="8"/>
       <c r="V180" s="9"/>
-      <c r="W180" s="56"/>
+      <c r="W180" s="34"/>
     </row>
     <row r="181" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B181" s="4"/>
@@ -5036,10 +5036,10 @@
       <c r="D181" s="5"/>
       <c r="E181" s="6"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="65" t="s">
+      <c r="G181" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H181" s="66"/>
+      <c r="H181" s="41"/>
       <c r="I181" s="4"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
@@ -5052,11 +5052,11 @@
       <c r="R181" s="5"/>
       <c r="S181" s="5"/>
       <c r="T181" s="6"/>
-      <c r="U181" s="65" t="s">
+      <c r="U181" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="V181" s="66"/>
-      <c r="W181" s="56"/>
+      <c r="V181" s="41"/>
+      <c r="W181" s="34"/>
     </row>
     <row r="182" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
@@ -5064,8 +5064,8 @@
       <c r="D182" s="8"/>
       <c r="E182" s="9"/>
       <c r="F182" s="8"/>
-      <c r="G182" s="39"/>
-      <c r="H182" s="40"/>
+      <c r="G182" s="42"/>
+      <c r="H182" s="43"/>
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8"/>
@@ -5078,70 +5078,20 @@
       <c r="R182" s="8"/>
       <c r="S182" s="8"/>
       <c r="T182" s="8"/>
-      <c r="U182" s="39"/>
-      <c r="V182" s="40"/>
-      <c r="W182" s="45"/>
+      <c r="U182" s="42"/>
+      <c r="V182" s="43"/>
+      <c r="W182" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="G181:H182"/>
-    <mergeCell ref="U181:V182"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="L162:M162"/>
-    <mergeCell ref="N162:O162"/>
-    <mergeCell ref="P162:Q162"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="G146:H147"/>
-    <mergeCell ref="U146:V147"/>
-    <mergeCell ref="V151:V152"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="G112:H113"/>
-    <mergeCell ref="U112:V113"/>
-    <mergeCell ref="V116:V117"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="K119:L119"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="V82:V83"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G76:H77"/>
-    <mergeCell ref="U76:V77"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="V12:V13"/>
     <mergeCell ref="V46:V47"/>
     <mergeCell ref="G49:H49"/>
@@ -5158,14 +5108,64 @@
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G76:H77"/>
+    <mergeCell ref="U76:V77"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="V82:V83"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="G112:H113"/>
+    <mergeCell ref="U112:V113"/>
+    <mergeCell ref="V116:V117"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="G146:H147"/>
+    <mergeCell ref="U146:V147"/>
+    <mergeCell ref="V151:V152"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="G181:H182"/>
+    <mergeCell ref="U181:V182"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="L162:M162"/>
+    <mergeCell ref="N162:O162"/>
+    <mergeCell ref="P162:Q162"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -669,10 +669,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -681,11 +732,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -697,72 +763,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B11:AA182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163:E163"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1114,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="64" t="s">
+      <c r="V12" s="53" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="19"/>
@@ -1140,7 +1140,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="65"/>
+      <c r="V13" s="54"/>
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="2:23" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1173,18 +1173,18 @@
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="44" t="s">
+      <c r="H15" s="43"/>
+      <c r="I15" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="44" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="45"/>
+      <c r="L15" s="41"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1198,12 +1198,12 @@
       <c r="W15" s="6"/>
     </row>
     <row r="16" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -1232,10 +1232,10 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="45"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="21">
         <v>111</v>
       </c>
@@ -1243,10 +1243,10 @@
       <c r="L17" s="23"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="44" t="s">
+      <c r="O17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="45"/>
+      <c r="P17" s="41"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="22">
         <v>112</v>
@@ -1306,18 +1306,18 @@
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="2:27" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="70"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="45"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="21">
         <v>113</v>
       </c>
@@ -1402,22 +1402,22 @@
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="44" t="s">
+      <c r="J23" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="44" t="s">
+      <c r="K23" s="41"/>
+      <c r="L23" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="45"/>
-      <c r="N23" s="44" t="s">
+      <c r="M23" s="41"/>
+      <c r="N23" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="O23" s="45"/>
-      <c r="P23" s="44" t="s">
+      <c r="O23" s="41"/>
+      <c r="P23" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Q23" s="45"/>
+      <c r="Q23" s="41"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
@@ -1471,27 +1471,27 @@
       <c r="G25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="44" t="s">
+      <c r="H25" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="44" t="s">
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="44" t="s">
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="V25" s="45"/>
+      <c r="V25" s="41"/>
       <c r="W25" s="6"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
@@ -1913,10 +1913,10 @@
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="66" t="s">
+      <c r="G42" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="67"/>
+      <c r="H42" s="58"/>
       <c r="I42" s="29"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
@@ -1929,10 +1929,10 @@
       <c r="R42" s="30"/>
       <c r="S42" s="30"/>
       <c r="T42" s="31"/>
-      <c r="U42" s="66" t="s">
+      <c r="U42" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="V42" s="67"/>
+      <c r="V42" s="58"/>
       <c r="W42" s="6"/>
     </row>
     <row r="43" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1941,8 +1941,8 @@
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="43"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="60"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -1955,8 +1955,8 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="43"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="60"/>
       <c r="W43" s="9"/>
     </row>
     <row r="45" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1981,7 +1981,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="64" t="s">
+      <c r="V46" s="53" t="s">
         <v>19</v>
       </c>
       <c r="W46" s="33"/>
@@ -2007,7 +2007,7 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
-      <c r="V47" s="65"/>
+      <c r="V47" s="54"/>
       <c r="W47" s="34"/>
     </row>
     <row r="48" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -2040,18 +2040,18 @@
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="53" t="s">
+      <c r="G49" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55" t="s">
+      <c r="H49" s="56"/>
+      <c r="I49" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="56"/>
-      <c r="K49" s="44" t="s">
+      <c r="J49" s="43"/>
+      <c r="K49" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="L49" s="45"/>
+      <c r="L49" s="41"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -2065,12 +2065,12 @@
       <c r="W49" s="34"/>
     </row>
     <row r="50" spans="2:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="62"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
       <c r="H50" s="5"/>
@@ -2100,16 +2100,16 @@
       <c r="H51" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="44"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="45"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="41"/>
       <c r="M51" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="N51" s="44"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="45"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="41"/>
       <c r="V51" s="6"/>
       <c r="W51" s="34"/>
     </row>
@@ -2133,16 +2133,16 @@
       <c r="H53" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="44"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="45"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="41"/>
       <c r="M53" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N53" s="44"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="45"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="41"/>
       <c r="S53" s="32" t="s">
         <v>24</v>
       </c>
@@ -2159,12 +2159,12 @@
       </c>
     </row>
     <row r="54" spans="2:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="69" t="s">
+      <c r="B54" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="70"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="5"/>
       <c r="G54" s="4"/>
       <c r="V54" s="6"/>
@@ -2180,16 +2180,16 @@
       <c r="H55" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I55" s="44"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="45"/>
-      <c r="M55" s="44" t="s">
+      <c r="I55" s="40"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="41"/>
+      <c r="M55" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="45"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="45"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="41"/>
       <c r="V55" s="6"/>
       <c r="W55" s="34"/>
     </row>
@@ -2212,22 +2212,22 @@
       <c r="G57" s="7"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="44" t="s">
+      <c r="J57" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="45"/>
-      <c r="L57" s="44" t="s">
+      <c r="K57" s="41"/>
+      <c r="L57" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="M57" s="45"/>
-      <c r="N57" s="44" t="s">
+      <c r="M57" s="41"/>
+      <c r="N57" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="O57" s="45"/>
-      <c r="P57" s="44" t="s">
+      <c r="O57" s="41"/>
+      <c r="P57" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Q57" s="45"/>
+      <c r="Q57" s="41"/>
       <c r="R57" s="8"/>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
@@ -2273,24 +2273,24 @@
       <c r="G59" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="68" t="s">
+      <c r="H59" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68" t="s">
+      <c r="I59" s="62"/>
+      <c r="J59" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68" t="s">
+      <c r="K59" s="62"/>
+      <c r="L59" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68" t="s">
+      <c r="M59" s="62"/>
+      <c r="N59" s="62"/>
+      <c r="O59" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
       <c r="R59" s="37" t="s">
         <v>30</v>
       </c>
@@ -2699,10 +2699,10 @@
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="66" t="s">
+      <c r="G76" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="67"/>
+      <c r="H76" s="58"/>
       <c r="I76" s="29"/>
       <c r="J76" s="30"/>
       <c r="K76" s="30"/>
@@ -2715,10 +2715,10 @@
       <c r="R76" s="30"/>
       <c r="S76" s="30"/>
       <c r="T76" s="31"/>
-      <c r="U76" s="66" t="s">
+      <c r="U76" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="V76" s="67"/>
+      <c r="V76" s="58"/>
       <c r="W76" s="34"/>
     </row>
     <row r="77" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -2727,8 +2727,8 @@
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="43"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="60"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -2741,8 +2741,8 @@
       <c r="R77" s="8"/>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
-      <c r="U77" s="42"/>
-      <c r="V77" s="43"/>
+      <c r="U77" s="59"/>
+      <c r="V77" s="60"/>
       <c r="W77" s="27"/>
     </row>
     <row r="81" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2767,7 +2767,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
-      <c r="V82" s="64" t="s">
+      <c r="V82" s="53" t="s">
         <v>19</v>
       </c>
       <c r="W82" s="33"/>
@@ -2793,7 +2793,7 @@
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
-      <c r="V83" s="65"/>
+      <c r="V83" s="54"/>
       <c r="W83" s="34"/>
     </row>
     <row r="84" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -2826,18 +2826,18 @@
       <c r="D85" s="2"/>
       <c r="E85" s="3"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="55" t="s">
+      <c r="G85" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="H85" s="56"/>
-      <c r="I85" s="44" t="s">
+      <c r="H85" s="43"/>
+      <c r="I85" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J85" s="45"/>
-      <c r="K85" s="44" t="s">
+      <c r="J85" s="41"/>
+      <c r="K85" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="L85" s="45"/>
+      <c r="L85" s="41"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -2851,12 +2851,12 @@
       <c r="W85" s="34"/>
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B86" s="57" t="s">
+      <c r="B86" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="59"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="65"/>
       <c r="F86" s="5"/>
       <c r="G86" s="4"/>
       <c r="H86" s="5"/>
@@ -2959,12 +2959,12 @@
       <c r="W89" s="34"/>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B90" s="60" t="s">
+      <c r="B90" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="62"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="46"/>
       <c r="F90" s="5"/>
       <c r="G90" s="4"/>
       <c r="H90" s="5"/>
@@ -3045,22 +3045,22 @@
       <c r="G93" s="7"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
-      <c r="J93" s="44" t="s">
+      <c r="J93" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K93" s="45"/>
-      <c r="L93" s="44" t="s">
+      <c r="K93" s="41"/>
+      <c r="L93" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="M93" s="45"/>
-      <c r="N93" s="44" t="s">
+      <c r="M93" s="41"/>
+      <c r="N93" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="O93" s="45"/>
-      <c r="P93" s="44" t="s">
+      <c r="O93" s="41"/>
+      <c r="P93" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Q93" s="45"/>
+      <c r="Q93" s="41"/>
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
@@ -3522,10 +3522,10 @@
       <c r="D112" s="5"/>
       <c r="E112" s="6"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="40" t="s">
+      <c r="G112" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H112" s="41"/>
+      <c r="H112" s="67"/>
       <c r="I112" s="4"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -3538,10 +3538,10 @@
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
       <c r="T112" s="6"/>
-      <c r="U112" s="40" t="s">
+      <c r="U112" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="V112" s="41"/>
+      <c r="V112" s="67"/>
       <c r="W112" s="34"/>
     </row>
     <row r="113" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -3550,8 +3550,8 @@
       <c r="D113" s="8"/>
       <c r="E113" s="9"/>
       <c r="F113" s="8"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="43"/>
+      <c r="G113" s="59"/>
+      <c r="H113" s="60"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -3564,8 +3564,8 @@
       <c r="R113" s="8"/>
       <c r="S113" s="8"/>
       <c r="T113" s="8"/>
-      <c r="U113" s="42"/>
-      <c r="V113" s="43"/>
+      <c r="U113" s="59"/>
+      <c r="V113" s="60"/>
       <c r="W113" s="27"/>
     </row>
     <row r="115" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3590,7 +3590,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
-      <c r="V116" s="64" t="s">
+      <c r="V116" s="53" t="s">
         <v>19</v>
       </c>
       <c r="W116" s="33"/>
@@ -3616,7 +3616,7 @@
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
-      <c r="V117" s="65"/>
+      <c r="V117" s="54"/>
       <c r="W117" s="34"/>
     </row>
     <row r="118" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -3649,18 +3649,18 @@
       <c r="D119" s="2"/>
       <c r="E119" s="3"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="53" t="s">
+      <c r="G119" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H119" s="54"/>
-      <c r="I119" s="55" t="s">
+      <c r="H119" s="56"/>
+      <c r="I119" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="J119" s="56"/>
-      <c r="K119" s="44" t="s">
+      <c r="J119" s="43"/>
+      <c r="K119" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="L119" s="45"/>
+      <c r="L119" s="41"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -3674,12 +3674,12 @@
       <c r="W119" s="34"/>
     </row>
     <row r="120" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B120" s="57" t="s">
+      <c r="B120" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C120" s="58"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="59"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="65"/>
       <c r="F120" s="5"/>
       <c r="G120" s="4"/>
       <c r="H120" s="5"/>
@@ -3751,12 +3751,12 @@
       <c r="W123" s="34"/>
     </row>
     <row r="124" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B124" s="60" t="s">
+      <c r="B124" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="61"/>
-      <c r="D124" s="61"/>
-      <c r="E124" s="62"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="45"/>
+      <c r="E124" s="46"/>
       <c r="F124" s="5"/>
       <c r="G124" s="4"/>
       <c r="T124" s="5"/>
@@ -3809,20 +3809,20 @@
       <c r="G127" s="7"/>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
-      <c r="J127" s="44" t="s">
+      <c r="J127" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="K127" s="45"/>
-      <c r="L127" s="44" t="s">
+      <c r="K127" s="41"/>
+      <c r="L127" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="M127" s="45"/>
-      <c r="N127" s="44" t="s">
+      <c r="M127" s="41"/>
+      <c r="N127" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="O127" s="45"/>
-      <c r="P127" s="63"/>
-      <c r="Q127" s="63"/>
+      <c r="O127" s="41"/>
+      <c r="P127" s="48"/>
+      <c r="Q127" s="48"/>
       <c r="R127" s="8"/>
       <c r="S127" s="8"/>
       <c r="T127" s="8"/>
@@ -4282,10 +4282,10 @@
       <c r="D146" s="5"/>
       <c r="E146" s="6"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="40" t="s">
+      <c r="G146" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H146" s="41"/>
+      <c r="H146" s="67"/>
       <c r="I146" s="4"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
@@ -4298,10 +4298,10 @@
       <c r="R146" s="5"/>
       <c r="S146" s="5"/>
       <c r="T146" s="6"/>
-      <c r="U146" s="40" t="s">
+      <c r="U146" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="V146" s="41"/>
+      <c r="V146" s="67"/>
       <c r="W146" s="34"/>
     </row>
     <row r="147" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -4310,8 +4310,8 @@
       <c r="D147" s="8"/>
       <c r="E147" s="9"/>
       <c r="F147" s="8"/>
-      <c r="G147" s="42"/>
-      <c r="H147" s="43"/>
+      <c r="G147" s="59"/>
+      <c r="H147" s="60"/>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
@@ -4324,8 +4324,8 @@
       <c r="R147" s="8"/>
       <c r="S147" s="8"/>
       <c r="T147" s="8"/>
-      <c r="U147" s="42"/>
-      <c r="V147" s="43"/>
+      <c r="U147" s="59"/>
+      <c r="V147" s="60"/>
       <c r="W147" s="27"/>
     </row>
     <row r="150" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4350,7 +4350,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
-      <c r="V151" s="64" t="s">
+      <c r="V151" s="53" t="s">
         <v>19</v>
       </c>
       <c r="W151" s="33"/>
@@ -4376,7 +4376,7 @@
       <c r="S152" s="8"/>
       <c r="T152" s="8"/>
       <c r="U152" s="8"/>
-      <c r="V152" s="65"/>
+      <c r="V152" s="54"/>
       <c r="W152" s="34"/>
     </row>
     <row r="153" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -4409,18 +4409,18 @@
       <c r="D154" s="2"/>
       <c r="E154" s="3"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="53" t="s">
+      <c r="G154" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H154" s="54"/>
-      <c r="I154" s="53" t="s">
+      <c r="H154" s="56"/>
+      <c r="I154" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="J154" s="54"/>
-      <c r="K154" s="55" t="s">
+      <c r="J154" s="56"/>
+      <c r="K154" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="L154" s="56"/>
+      <c r="L154" s="43"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -4434,12 +4434,12 @@
       <c r="W154" s="34"/>
     </row>
     <row r="155" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B155" s="57" t="s">
+      <c r="B155" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C155" s="58"/>
-      <c r="D155" s="58"/>
-      <c r="E155" s="59"/>
+      <c r="C155" s="64"/>
+      <c r="D155" s="64"/>
+      <c r="E155" s="65"/>
       <c r="F155" s="5"/>
       <c r="G155" s="4"/>
       <c r="H155" s="5"/>
@@ -4511,12 +4511,12 @@
       <c r="W158" s="34"/>
     </row>
     <row r="159" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B159" s="60" t="s">
+      <c r="B159" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="61"/>
-      <c r="D159" s="61"/>
-      <c r="E159" s="62"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="45"/>
+      <c r="E159" s="46"/>
       <c r="F159" s="5"/>
       <c r="G159" s="4"/>
       <c r="T159" s="5"/>
@@ -4569,18 +4569,18 @@
       <c r="G162" s="7"/>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
-      <c r="J162" s="44" t="s">
+      <c r="J162" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="K162" s="45"/>
-      <c r="L162" s="44" t="s">
+      <c r="K162" s="41"/>
+      <c r="L162" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M162" s="46"/>
-      <c r="N162" s="47"/>
-      <c r="O162" s="48"/>
-      <c r="P162" s="48"/>
-      <c r="Q162" s="49"/>
+      <c r="M162" s="68"/>
+      <c r="N162" s="69"/>
+      <c r="O162" s="70"/>
+      <c r="P162" s="70"/>
+      <c r="Q162" s="71"/>
       <c r="R162" s="8"/>
       <c r="S162" s="8"/>
       <c r="T162" s="8"/>
@@ -5036,10 +5036,10 @@
       <c r="D181" s="5"/>
       <c r="E181" s="6"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="40" t="s">
+      <c r="G181" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H181" s="41"/>
+      <c r="H181" s="67"/>
       <c r="I181" s="4"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
@@ -5052,10 +5052,10 @@
       <c r="R181" s="5"/>
       <c r="S181" s="5"/>
       <c r="T181" s="6"/>
-      <c r="U181" s="40" t="s">
+      <c r="U181" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="V181" s="41"/>
+      <c r="V181" s="67"/>
       <c r="W181" s="34"/>
     </row>
     <row r="182" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -5064,8 +5064,8 @@
       <c r="D182" s="8"/>
       <c r="E182" s="9"/>
       <c r="F182" s="8"/>
-      <c r="G182" s="42"/>
-      <c r="H182" s="43"/>
+      <c r="G182" s="59"/>
+      <c r="H182" s="60"/>
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8"/>
@@ -5078,36 +5078,63 @@
       <c r="R182" s="8"/>
       <c r="S182" s="8"/>
       <c r="T182" s="8"/>
-      <c r="U182" s="42"/>
-      <c r="V182" s="43"/>
+      <c r="U182" s="59"/>
+      <c r="V182" s="60"/>
       <c r="W182" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="G42:H43"/>
-    <mergeCell ref="U42:V43"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="M25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="G181:H182"/>
+    <mergeCell ref="U181:V182"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="L162:M162"/>
+    <mergeCell ref="N162:O162"/>
+    <mergeCell ref="P162:Q162"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="G146:H147"/>
+    <mergeCell ref="U146:V147"/>
+    <mergeCell ref="V151:V152"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="G112:H113"/>
+    <mergeCell ref="U112:V113"/>
+    <mergeCell ref="V116:V117"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="V82:V83"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G76:H77"/>
+    <mergeCell ref="U76:V77"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
     <mergeCell ref="I51:K51"/>
     <mergeCell ref="N51:Q51"/>
     <mergeCell ref="I53:K53"/>
@@ -5115,57 +5142,30 @@
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="M55:N55"/>
     <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G76:H77"/>
-    <mergeCell ref="U76:V77"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="V82:V83"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="G112:H113"/>
-    <mergeCell ref="U112:V113"/>
-    <mergeCell ref="V116:V117"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="K119:L119"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="G146:H147"/>
-    <mergeCell ref="U146:V147"/>
-    <mergeCell ref="V151:V152"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="G181:H182"/>
-    <mergeCell ref="U181:V182"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="L162:M162"/>
-    <mergeCell ref="N162:O162"/>
-    <mergeCell ref="P162:Q162"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="U42:V43"/>
+    <mergeCell ref="M25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t>QUAN LY LOP HOC</t>
   </si>
@@ -218,18 +218,9 @@
     <t>HUY DK</t>
   </si>
   <si>
-    <t>MA MH</t>
-  </si>
-  <si>
     <t>TEN MH</t>
   </si>
   <si>
-    <t>SLTCLT</t>
-  </si>
-  <si>
-    <t>SLTCTH</t>
-  </si>
-  <si>
     <t>CHON</t>
   </si>
   <si>
@@ -243,6 +234,12 @@
   </si>
   <si>
     <t xml:space="preserve">HO TEN </t>
+  </si>
+  <si>
+    <t>SL CON</t>
+  </si>
+  <si>
+    <t>TONG TC</t>
   </si>
 </sst>
 </file>
@@ -669,16 +666,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,22 +735,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,55 +744,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1080,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B11:AA182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119:L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1111,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="53" t="s">
+      <c r="V12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="19"/>
@@ -1140,7 +1137,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="54"/>
+      <c r="V13" s="65"/>
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="2:23" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1173,18 +1170,18 @@
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="40" t="s">
+      <c r="H15" s="56"/>
+      <c r="I15" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="40" t="s">
+      <c r="J15" s="45"/>
+      <c r="K15" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="41"/>
+      <c r="L15" s="45"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1198,12 +1195,12 @@
       <c r="W15" s="6"/>
     </row>
     <row r="16" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -1232,10 +1229,10 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="41"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="21">
         <v>111</v>
       </c>
@@ -1243,10 +1240,10 @@
       <c r="L17" s="23"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="40" t="s">
+      <c r="O17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="41"/>
+      <c r="P17" s="45"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="22">
         <v>112</v>
@@ -1306,18 +1303,18 @@
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="2:27" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="41"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="21">
         <v>113</v>
       </c>
@@ -1402,22 +1399,22 @@
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="40" t="s">
+      <c r="K23" s="45"/>
+      <c r="L23" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="40" t="s">
+      <c r="M23" s="45"/>
+      <c r="N23" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O23" s="41"/>
-      <c r="P23" s="40" t="s">
+      <c r="O23" s="45"/>
+      <c r="P23" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="Q23" s="41"/>
+      <c r="Q23" s="45"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
@@ -1471,27 +1468,27 @@
       <c r="G25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="40" t="s">
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="40" t="s">
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="V25" s="41"/>
+      <c r="V25" s="45"/>
       <c r="W25" s="6"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
@@ -1913,10 +1910,10 @@
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="57" t="s">
+      <c r="G42" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="58"/>
+      <c r="H42" s="67"/>
       <c r="I42" s="29"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
@@ -1929,10 +1926,10 @@
       <c r="R42" s="30"/>
       <c r="S42" s="30"/>
       <c r="T42" s="31"/>
-      <c r="U42" s="57" t="s">
+      <c r="U42" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="V42" s="58"/>
+      <c r="V42" s="67"/>
       <c r="W42" s="6"/>
     </row>
     <row r="43" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1941,8 +1938,8 @@
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="60"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -1955,8 +1952,8 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="60"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="43"/>
       <c r="W43" s="9"/>
     </row>
     <row r="45" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1981,7 +1978,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="53" t="s">
+      <c r="V46" s="64" t="s">
         <v>19</v>
       </c>
       <c r="W46" s="33"/>
@@ -2007,7 +2004,7 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
-      <c r="V47" s="54"/>
+      <c r="V47" s="65"/>
       <c r="W47" s="34"/>
     </row>
     <row r="48" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -2040,18 +2037,18 @@
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="55" t="s">
+      <c r="G49" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="56"/>
-      <c r="I49" s="42" t="s">
+      <c r="H49" s="54"/>
+      <c r="I49" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="43"/>
-      <c r="K49" s="40" t="s">
+      <c r="J49" s="56"/>
+      <c r="K49" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="L49" s="41"/>
+      <c r="L49" s="45"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -2065,12 +2062,12 @@
       <c r="W49" s="34"/>
     </row>
     <row r="50" spans="2:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="62"/>
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
       <c r="H50" s="5"/>
@@ -2100,16 +2097,16 @@
       <c r="H51" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="40"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="41"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="45"/>
       <c r="M51" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="N51" s="40"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="41"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="45"/>
       <c r="V51" s="6"/>
       <c r="W51" s="34"/>
     </row>
@@ -2133,16 +2130,16 @@
       <c r="H53" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="40"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="41"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="45"/>
       <c r="M53" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N53" s="40"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="41"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="45"/>
       <c r="S53" s="32" t="s">
         <v>24</v>
       </c>
@@ -2159,12 +2156,12 @@
       </c>
     </row>
     <row r="54" spans="2:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="49"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="70"/>
       <c r="F54" s="5"/>
       <c r="G54" s="4"/>
       <c r="V54" s="6"/>
@@ -2180,16 +2177,16 @@
       <c r="H55" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I55" s="40"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="41"/>
-      <c r="M55" s="40" t="s">
+      <c r="I55" s="44"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="45"/>
+      <c r="M55" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="41"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="41"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="45"/>
       <c r="V55" s="6"/>
       <c r="W55" s="34"/>
     </row>
@@ -2212,22 +2209,22 @@
       <c r="G57" s="7"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="40" t="s">
+      <c r="J57" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="41"/>
-      <c r="L57" s="40" t="s">
+      <c r="K57" s="45"/>
+      <c r="L57" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M57" s="41"/>
-      <c r="N57" s="40" t="s">
+      <c r="M57" s="45"/>
+      <c r="N57" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O57" s="41"/>
-      <c r="P57" s="40" t="s">
+      <c r="O57" s="45"/>
+      <c r="P57" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="Q57" s="41"/>
+      <c r="Q57" s="45"/>
       <c r="R57" s="8"/>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
@@ -2273,24 +2270,24 @@
       <c r="G59" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="62" t="s">
+      <c r="H59" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62" t="s">
+      <c r="I59" s="68"/>
+      <c r="J59" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K59" s="62"/>
-      <c r="L59" s="62" t="s">
+      <c r="K59" s="68"/>
+      <c r="L59" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="M59" s="62"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62" t="s">
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="62"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
       <c r="R59" s="37" t="s">
         <v>30</v>
       </c>
@@ -2699,10 +2696,10 @@
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="57" t="s">
+      <c r="G76" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="58"/>
+      <c r="H76" s="67"/>
       <c r="I76" s="29"/>
       <c r="J76" s="30"/>
       <c r="K76" s="30"/>
@@ -2715,10 +2712,10 @@
       <c r="R76" s="30"/>
       <c r="S76" s="30"/>
       <c r="T76" s="31"/>
-      <c r="U76" s="57" t="s">
+      <c r="U76" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="V76" s="58"/>
+      <c r="V76" s="67"/>
       <c r="W76" s="34"/>
     </row>
     <row r="77" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -2727,8 +2724,8 @@
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="60"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="43"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -2741,8 +2738,8 @@
       <c r="R77" s="8"/>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
-      <c r="U77" s="59"/>
-      <c r="V77" s="60"/>
+      <c r="U77" s="42"/>
+      <c r="V77" s="43"/>
       <c r="W77" s="27"/>
     </row>
     <row r="81" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2767,7 +2764,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
-      <c r="V82" s="53" t="s">
+      <c r="V82" s="64" t="s">
         <v>19</v>
       </c>
       <c r="W82" s="33"/>
@@ -2793,7 +2790,7 @@
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
-      <c r="V83" s="54"/>
+      <c r="V83" s="65"/>
       <c r="W83" s="34"/>
     </row>
     <row r="84" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -2826,18 +2823,18 @@
       <c r="D85" s="2"/>
       <c r="E85" s="3"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="42" t="s">
+      <c r="G85" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H85" s="43"/>
-      <c r="I85" s="40" t="s">
+      <c r="H85" s="56"/>
+      <c r="I85" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="J85" s="41"/>
-      <c r="K85" s="40" t="s">
+      <c r="J85" s="45"/>
+      <c r="K85" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="L85" s="41"/>
+      <c r="L85" s="45"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -2851,12 +2848,12 @@
       <c r="W85" s="34"/>
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B86" s="63" t="s">
+      <c r="B86" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="64"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="65"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="59"/>
       <c r="F86" s="5"/>
       <c r="G86" s="4"/>
       <c r="H86" s="5"/>
@@ -2959,12 +2956,12 @@
       <c r="W89" s="34"/>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="62"/>
       <c r="F90" s="5"/>
       <c r="G90" s="4"/>
       <c r="H90" s="5"/>
@@ -3045,22 +3042,22 @@
       <c r="G93" s="7"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
-      <c r="J93" s="40" t="s">
+      <c r="J93" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="K93" s="41"/>
-      <c r="L93" s="40" t="s">
+      <c r="K93" s="45"/>
+      <c r="L93" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M93" s="41"/>
-      <c r="N93" s="40" t="s">
+      <c r="M93" s="45"/>
+      <c r="N93" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O93" s="41"/>
-      <c r="P93" s="40" t="s">
+      <c r="O93" s="45"/>
+      <c r="P93" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="Q93" s="41"/>
+      <c r="Q93" s="45"/>
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
@@ -3522,10 +3519,10 @@
       <c r="D112" s="5"/>
       <c r="E112" s="6"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="66" t="s">
+      <c r="G112" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H112" s="67"/>
+      <c r="H112" s="41"/>
       <c r="I112" s="4"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -3538,10 +3535,10 @@
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
       <c r="T112" s="6"/>
-      <c r="U112" s="66" t="s">
+      <c r="U112" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="V112" s="67"/>
+      <c r="V112" s="41"/>
       <c r="W112" s="34"/>
     </row>
     <row r="113" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -3550,8 +3547,8 @@
       <c r="D113" s="8"/>
       <c r="E113" s="9"/>
       <c r="F113" s="8"/>
-      <c r="G113" s="59"/>
-      <c r="H113" s="60"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="43"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -3564,8 +3561,8 @@
       <c r="R113" s="8"/>
       <c r="S113" s="8"/>
       <c r="T113" s="8"/>
-      <c r="U113" s="59"/>
-      <c r="V113" s="60"/>
+      <c r="U113" s="42"/>
+      <c r="V113" s="43"/>
       <c r="W113" s="27"/>
     </row>
     <row r="115" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3590,7 +3587,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
-      <c r="V116" s="53" t="s">
+      <c r="V116" s="64" t="s">
         <v>19</v>
       </c>
       <c r="W116" s="33"/>
@@ -3616,7 +3613,7 @@
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
-      <c r="V117" s="54"/>
+      <c r="V117" s="65"/>
       <c r="W117" s="34"/>
     </row>
     <row r="118" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -3649,18 +3646,18 @@
       <c r="D119" s="2"/>
       <c r="E119" s="3"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="55" t="s">
+      <c r="G119" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="H119" s="56"/>
-      <c r="I119" s="42" t="s">
+      <c r="H119" s="54"/>
+      <c r="I119" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="J119" s="43"/>
-      <c r="K119" s="40" t="s">
+      <c r="J119" s="56"/>
+      <c r="K119" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="L119" s="41"/>
+      <c r="L119" s="45"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -3674,12 +3671,12 @@
       <c r="W119" s="34"/>
     </row>
     <row r="120" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B120" s="63" t="s">
+      <c r="B120" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C120" s="64"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="65"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="59"/>
       <c r="F120" s="5"/>
       <c r="G120" s="4"/>
       <c r="H120" s="5"/>
@@ -3751,12 +3748,12 @@
       <c r="W123" s="34"/>
     </row>
     <row r="124" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B124" s="44" t="s">
+      <c r="B124" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="45"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="46"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="62"/>
       <c r="F124" s="5"/>
       <c r="G124" s="4"/>
       <c r="T124" s="5"/>
@@ -3809,20 +3806,20 @@
       <c r="G127" s="7"/>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
-      <c r="J127" s="40" t="s">
+      <c r="J127" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="K127" s="41"/>
-      <c r="L127" s="40" t="s">
+      <c r="K127" s="45"/>
+      <c r="L127" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M127" s="41"/>
-      <c r="N127" s="40" t="s">
+      <c r="M127" s="45"/>
+      <c r="N127" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="O127" s="41"/>
-      <c r="P127" s="48"/>
-      <c r="Q127" s="48"/>
+      <c r="O127" s="45"/>
+      <c r="P127" s="63"/>
+      <c r="Q127" s="63"/>
       <c r="R127" s="8"/>
       <c r="S127" s="8"/>
       <c r="T127" s="8"/>
@@ -3891,23 +3888,23 @@
         <v>14</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L130" s="5"/>
       <c r="M130" s="39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N130" s="5"/>
       <c r="O130" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P130" s="5"/>
       <c r="Q130" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R130" s="5"/>
       <c r="S130" s="5"/>
@@ -4282,10 +4279,10 @@
       <c r="D146" s="5"/>
       <c r="E146" s="6"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="66" t="s">
+      <c r="G146" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H146" s="67"/>
+      <c r="H146" s="41"/>
       <c r="I146" s="4"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
@@ -4298,10 +4295,10 @@
       <c r="R146" s="5"/>
       <c r="S146" s="5"/>
       <c r="T146" s="6"/>
-      <c r="U146" s="66" t="s">
+      <c r="U146" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="V146" s="67"/>
+      <c r="V146" s="41"/>
       <c r="W146" s="34"/>
     </row>
     <row r="147" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -4310,8 +4307,8 @@
       <c r="D147" s="8"/>
       <c r="E147" s="9"/>
       <c r="F147" s="8"/>
-      <c r="G147" s="59"/>
-      <c r="H147" s="60"/>
+      <c r="G147" s="42"/>
+      <c r="H147" s="43"/>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
@@ -4324,8 +4321,8 @@
       <c r="R147" s="8"/>
       <c r="S147" s="8"/>
       <c r="T147" s="8"/>
-      <c r="U147" s="59"/>
-      <c r="V147" s="60"/>
+      <c r="U147" s="42"/>
+      <c r="V147" s="43"/>
       <c r="W147" s="27"/>
     </row>
     <row r="150" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4350,7 +4347,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
-      <c r="V151" s="53" t="s">
+      <c r="V151" s="64" t="s">
         <v>19</v>
       </c>
       <c r="W151" s="33"/>
@@ -4376,7 +4373,7 @@
       <c r="S152" s="8"/>
       <c r="T152" s="8"/>
       <c r="U152" s="8"/>
-      <c r="V152" s="54"/>
+      <c r="V152" s="65"/>
       <c r="W152" s="34"/>
     </row>
     <row r="153" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -4409,18 +4406,18 @@
       <c r="D154" s="2"/>
       <c r="E154" s="3"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="55" t="s">
+      <c r="G154" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="H154" s="56"/>
-      <c r="I154" s="55" t="s">
+      <c r="H154" s="54"/>
+      <c r="I154" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="J154" s="56"/>
-      <c r="K154" s="42" t="s">
+      <c r="J154" s="54"/>
+      <c r="K154" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L154" s="43"/>
+      <c r="L154" s="56"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -4434,12 +4431,12 @@
       <c r="W154" s="34"/>
     </row>
     <row r="155" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B155" s="63" t="s">
+      <c r="B155" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C155" s="64"/>
-      <c r="D155" s="64"/>
-      <c r="E155" s="65"/>
+      <c r="C155" s="58"/>
+      <c r="D155" s="58"/>
+      <c r="E155" s="59"/>
       <c r="F155" s="5"/>
       <c r="G155" s="4"/>
       <c r="H155" s="5"/>
@@ -4470,7 +4467,7 @@
         <v>52</v>
       </c>
       <c r="L156" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T156" s="5"/>
       <c r="U156" s="5"/>
@@ -4485,10 +4482,10 @@
       <c r="F157" s="5"/>
       <c r="G157" s="4"/>
       <c r="H157" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L157" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T157" s="5"/>
       <c r="U157" s="5"/>
@@ -4511,12 +4508,12 @@
       <c r="W158" s="34"/>
     </row>
     <row r="159" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B159" s="44" t="s">
+      <c r="B159" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="45"/>
-      <c r="D159" s="45"/>
-      <c r="E159" s="46"/>
+      <c r="C159" s="61"/>
+      <c r="D159" s="61"/>
+      <c r="E159" s="62"/>
       <c r="F159" s="5"/>
       <c r="G159" s="4"/>
       <c r="T159" s="5"/>
@@ -4569,18 +4566,18 @@
       <c r="G162" s="7"/>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
-      <c r="J162" s="40" t="s">
+      <c r="J162" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K162" s="41"/>
-      <c r="L162" s="40" t="s">
+      <c r="K162" s="45"/>
+      <c r="L162" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M162" s="68"/>
-      <c r="N162" s="69"/>
-      <c r="O162" s="70"/>
-      <c r="P162" s="70"/>
-      <c r="Q162" s="71"/>
+      <c r="M162" s="46"/>
+      <c r="N162" s="47"/>
+      <c r="O162" s="48"/>
+      <c r="P162" s="48"/>
+      <c r="Q162" s="49"/>
       <c r="R162" s="8"/>
       <c r="S162" s="8"/>
       <c r="T162" s="8"/>
@@ -4653,7 +4650,7 @@
       </c>
       <c r="J165" s="5"/>
       <c r="K165" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L165" s="5"/>
       <c r="M165" s="39" t="s">
@@ -5036,10 +5033,10 @@
       <c r="D181" s="5"/>
       <c r="E181" s="6"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="66" t="s">
+      <c r="G181" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H181" s="67"/>
+      <c r="H181" s="41"/>
       <c r="I181" s="4"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
@@ -5052,10 +5049,10 @@
       <c r="R181" s="5"/>
       <c r="S181" s="5"/>
       <c r="T181" s="6"/>
-      <c r="U181" s="66" t="s">
+      <c r="U181" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="V181" s="67"/>
+      <c r="V181" s="41"/>
       <c r="W181" s="34"/>
     </row>
     <row r="182" spans="2:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -5064,8 +5061,8 @@
       <c r="D182" s="8"/>
       <c r="E182" s="9"/>
       <c r="F182" s="8"/>
-      <c r="G182" s="59"/>
-      <c r="H182" s="60"/>
+      <c r="G182" s="42"/>
+      <c r="H182" s="43"/>
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8"/>
@@ -5078,70 +5075,20 @@
       <c r="R182" s="8"/>
       <c r="S182" s="8"/>
       <c r="T182" s="8"/>
-      <c r="U182" s="59"/>
-      <c r="V182" s="60"/>
+      <c r="U182" s="42"/>
+      <c r="V182" s="43"/>
       <c r="W182" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="G181:H182"/>
-    <mergeCell ref="U181:V182"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="L162:M162"/>
-    <mergeCell ref="N162:O162"/>
-    <mergeCell ref="P162:Q162"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="G146:H147"/>
-    <mergeCell ref="U146:V147"/>
-    <mergeCell ref="V151:V152"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="G112:H113"/>
-    <mergeCell ref="U112:V113"/>
-    <mergeCell ref="V116:V117"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="K119:L119"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="V82:V83"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G76:H77"/>
-    <mergeCell ref="U76:V77"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="U42:V43"/>
+    <mergeCell ref="M25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="O17:P17"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="B50:E50"/>
@@ -5154,18 +5101,68 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="U42:V43"/>
-    <mergeCell ref="M25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="J23:K23"/>
-    <mergeCell ref="O17:P17"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G76:H77"/>
+    <mergeCell ref="U76:V77"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="V82:V83"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="G112:H113"/>
+    <mergeCell ref="U112:V113"/>
+    <mergeCell ref="V116:V117"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="G146:H147"/>
+    <mergeCell ref="U146:V147"/>
+    <mergeCell ref="V151:V152"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="G181:H182"/>
+    <mergeCell ref="U181:V182"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="L162:M162"/>
+    <mergeCell ref="N162:O162"/>
+    <mergeCell ref="P162:Q162"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
